--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOWMIYA\OneDrive\Documents\DE1\Study-of-basic-digital-IC-s-and-verification-of-truth-tables-for-different-logic-gates-realization-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C55B6-6956-45C9-B98E-18FCC63A838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB6BFA-68D1-4B4B-ABE3-BEDE9E927C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3232FA41-7096-4D9B-9E49-EC50AB23F5D6}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,20 +271,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -278,9 +282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +290,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,187 +999,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="A4" s="11">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
         <v>1</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5"/>
+      <c r="A5" s="11">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
         <v>1</v>
       </c>
     </row>
